--- a/version.0.5/students_data/2567.xlsx
+++ b/version.0.5/students_data/2567.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2567" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1222 +422,957 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Face Status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710121</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710121</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>นายกฤตเมธ ไทยภักดี</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710122</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710122</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>นางสาวกัญญรัชต์ สมหวังพรเจริญ</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710123</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710123</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>นางสาวกัญญาณัฐ เขมนรากร</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710124</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710124</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>นายคมสัน กลิ่นหอม</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710125</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710125</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>นายฐิติพงศ์ ราชธานี</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710126</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710126</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>นายณัฏฐ์ธเนศ กุนทรฐิติวัสส์</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710127</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710127</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>นายณัฐพงศ์ อวชัย</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710128</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710128</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>นางสาวธนัญญา พรมภักดี</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710129</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710129</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>นางสาวธารทิพย์ แสงสูงเนิน</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710130</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710130</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>นายธีทัต สุจริตพาณิช</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710131</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710131</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>นายนทิบดี ช้างทอง</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710132</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710132</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>นายนนธวัช งามบุญศิริสิงห์</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710133</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710133</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>นายนวภูมิ ปั้นหลวง</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710134</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710134</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>นายปฏิภาณ นิลวงค์</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710135</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710135</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>นายปรเมทร์ ฟองดา</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710136</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710136</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>นายปิยวัฒน์ เดียนประไพ</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710137</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710137</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>นายพงศ์ชยุตม์ หัวใจเพ็ชร์</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710138</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710138</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>นายพชรพล อาจม่วง</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710139</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710139</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>นายพิชัยพร พลบเนียม</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710140</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710140</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>นายภัทรดนัย คนชม</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710141</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710141</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>นายวีรชิต มงคล</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710142</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710142</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>นายวุฒิชัย หลักเพชร</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710143</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710143</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>นางสาวศุภิสรา สอนดี</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710144</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710144</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>นายจารุเดช พินิตศักดา</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710145</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710145</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>นางสาวชัชชา เภาเสน</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710146</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710146</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>นางสาวชัญญา เถระสวัสดิ์</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710148</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710148</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>นายภัทรกฤต สังครบ</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710149</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710149</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>นายศุภณัฐ วิริยะนรอนันต์</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710150</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710150</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>นายสิรวิชญ์ ปิ่นแสง</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710151</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710151</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>นางสาวสิริญญาธร ปุณกะบุตร</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710152</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710152</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>นายอังกฤษ ถ้ำสุวรรณ</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710153</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710153</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>นายภูริณัฐ สุวรรณสังโส</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710258</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710258</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>Mr.SOTHEA SOKEA</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710259</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710259</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>Mr.UDTARAKVISETH LAY</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710290</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710290</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>นายกรันต์ชัย คำทรัพย์</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710291</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710291</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>นางสาวณัฐณิชา ภู่วงษ์</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710292</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710292</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>นายเทพพิทักษ์ นิลดำ</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710293</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710293</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
           <t>นายปภังกร มงคลนรกิจ</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710294</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710294</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>นางสาวศิริกานต์ หรุ่นมาบแค</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710295</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710295</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>นายโสภณวิชญ์ แซ่เล้า</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710296</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710296</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>นายสิรวิชญ์ เชี่ยวชาญ</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710619</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710619</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>นายกันต์ธร บุตรเบ้า</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710620</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710620</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>นางสาวฉันทณัฏฐ วิชพันธุ์</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710621</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710621</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>นางสาวณัฐกฤตา บุญมี</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710622</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710622</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
           <t>นายณัฐวีร์ บุญยินดี</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710623</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710623</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
           <t>นายณัฐวุฒิ โตเมือง</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710624</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710624</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
           <t>นางสาวณัฐสุดา ลานตวน</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710625</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710625</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
           <t>นางสาวณัฐสุรางค์ ชาติทองคำ</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710626</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710626</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
           <t>นายธนเทพ นาสวน</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710627</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710627</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
           <t>นายนพรัตน์ นรนิล</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710628</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710628</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
           <t>นายปธานิน พรรณหาญ</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710629</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710629</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
           <t>นางสาวปริยากร คาวิน</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710630</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710630</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
           <t>นางสาวพิชญธิดา รักดี</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710631</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710631</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>นายภาธร นานช้า</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710632</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710632</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
           <t>นายรัชชานนท์ เจริญรมย์</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710633</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710633</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
           <t>นายรามิล แคใหญ่</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710634</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710634</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
           <t>นายวีรศิลป์ ลีนาวงศ์</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710635</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710635</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
           <t>นายสิปปกร ทองนุ่ม</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710636</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710636</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
           <t>นางสาวอชิรญา สมใจ</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710637</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710637</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
           <t>นางสาวอนัญญณัชช์ ขจรศิริผล</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710638</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710638</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
           <t>นายกฤติน เหลืองระลึก</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710639</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710639</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
           <t>นายก้องภพ คุณดำรงชัย</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710640</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710640</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
           <t>นายกิติภูมิ จันทร์จารุวัฒน์</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710641</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710641</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
           <t>นายคีรเทพ ก้องสุวรรณ</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710642</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710642</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
           <t>นางสาวจิณณพัต แหล่งหล้า</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710643</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710643</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
           <t>นางสาวจุฑารัตน์ รู้วงษ์</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710645</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710645</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
           <t>นายชาญวุฒิ งามยิ่ง</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710646</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710646</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
           <t>นายณัฐชนน รักวงศ์</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710647</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710647</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
           <t>นางสาวณัฐฐาพร เสตะวีระ</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710648</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710648</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
           <t>นายณัฐดนัย ศรีไวย</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710649</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710649</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
           <t>นายทศวรรษ คำบุญเรือง</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710651</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710651</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
           <t>นายพรรสวกร สมใจ</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710652</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710652</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
           <t>นายวรท ลักษณะ</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710653</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710653</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
           <t>นายวีรภัทร พิริยะสถิต</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 670710654</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710654</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
           <t>นางสาวอาธารดา พรหมแทนสุด</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
+    </row>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/version.0.5/students_data/2567.xlsx
+++ b/version.0.5/students_data/2567.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710121</t>
+          <t>670710121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710122</t>
+          <t>670710122</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -465,7 +465,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710123</t>
+          <t>670710123</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710124</t>
+          <t>670710124</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710125</t>
+          <t>670710125</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710126</t>
+          <t>670710126</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710127</t>
+          <t>670710127</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710128</t>
+          <t>670710128</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710129</t>
+          <t>670710129</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710130</t>
+          <t>670710130</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710131</t>
+          <t>670710131</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710132</t>
+          <t>670710132</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710133</t>
+          <t>670710133</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710134</t>
+          <t>670710134</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710135</t>
+          <t>670710135</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710136</t>
+          <t>670710136</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710137</t>
+          <t>670710137</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710138</t>
+          <t>670710138</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710139</t>
+          <t>670710139</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710140</t>
+          <t>670710140</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710141</t>
+          <t>670710141</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710142</t>
+          <t>670710142</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710143</t>
+          <t>670710143</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710144</t>
+          <t>670710144</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710145</t>
+          <t>670710145</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710146</t>
+          <t>670710146</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710148</t>
+          <t>670710148</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710149</t>
+          <t>670710149</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710150</t>
+          <t>670710150</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710151</t>
+          <t>670710151</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710152</t>
+          <t>670710152</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710153</t>
+          <t>670710153</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710258</t>
+          <t>670710258</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710259</t>
+          <t>670710259</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710290</t>
+          <t>670710290</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710291</t>
+          <t>670710291</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710292</t>
+          <t>670710292</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710293</t>
+          <t>670710293</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710294</t>
+          <t>670710294</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710295</t>
+          <t>670710295</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710296</t>
+          <t>670710296</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710619</t>
+          <t>670710619</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710620</t>
+          <t>670710620</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710621</t>
+          <t>670710621</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710622</t>
+          <t>670710622</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710623</t>
+          <t>670710623</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710624</t>
+          <t>670710624</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710625</t>
+          <t>670710625</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710626</t>
+          <t>670710626</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710627</t>
+          <t>670710627</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710628</t>
+          <t>670710628</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710629</t>
+          <t>670710629</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710630</t>
+          <t>670710630</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710631</t>
+          <t>670710631</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710632</t>
+          <t>670710632</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710633</t>
+          <t>670710633</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710634</t>
+          <t>670710634</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710635</t>
+          <t>670710635</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710636</t>
+          <t>670710636</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710637</t>
+          <t>670710637</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710638</t>
+          <t>670710638</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710639</t>
+          <t>670710639</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710640</t>
+          <t>670710640</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710641</t>
+          <t>670710641</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710642</t>
+          <t>670710642</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710643</t>
+          <t>670710643</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710645</t>
+          <t>670710645</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710646</t>
+          <t>670710646</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710647</t>
+          <t>670710647</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1269,7 +1269,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710648</t>
+          <t>670710648</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710649</t>
+          <t>670710649</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710651</t>
+          <t>670710651</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1305,7 +1305,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710652</t>
+          <t>670710652</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710653</t>
+          <t>670710653</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 670710654</t>
+          <t>670710654</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1338,41 +1338,251 @@
         </is>
       </c>
     </row>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
